--- a/bd/guia.xlsx
+++ b/bd/guia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t xml:space="preserve">NARE </t>
   </si>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +427,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,7 +449,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,18 +482,18 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,13 +509,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,23 +531,34 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>

--- a/bd/guia.xlsx
+++ b/bd/guia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t xml:space="preserve">NARE </t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">GENERAL </t>
+  </si>
+  <si>
+    <t>JAZMIN,ABARCO,GIRASOL</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,13 +501,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,13 +523,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,23 +545,34 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
